--- a/procurement_data_mock.xlsx
+++ b/procurement_data_mock.xlsx
@@ -1132,7 +1132,7 @@
         <v>469415</v>
       </c>
       <c r="E2" s="2">
-        <v>45748.47912038405</v>
+        <v>45677.5626052291</v>
       </c>
       <c r="F2" t="s">
         <v>120</v>
@@ -1164,7 +1164,7 @@
         <v>175838</v>
       </c>
       <c r="E3" s="2">
-        <v>45565.4791203844</v>
+        <v>45524.56260522935</v>
       </c>
       <c r="F3" t="s">
         <v>121</v>
@@ -1196,7 +1196,7 @@
         <v>345674</v>
       </c>
       <c r="E4" s="2">
-        <v>45464.47912038444</v>
+        <v>45557.56260522941</v>
       </c>
       <c r="F4" t="s">
         <v>120</v>
@@ -1228,7 +1228,7 @@
         <v>365701</v>
       </c>
       <c r="E5" s="2">
-        <v>45807.4791203845</v>
+        <v>45460.56260522945</v>
       </c>
       <c r="F5" t="s">
         <v>122</v>
@@ -1260,7 +1260,7 @@
         <v>71087</v>
       </c>
       <c r="E6" s="2">
-        <v>45770.47912038455</v>
+        <v>45565.56260522948</v>
       </c>
       <c r="F6" t="s">
         <v>120</v>
@@ -1292,7 +1292,7 @@
         <v>499055</v>
       </c>
       <c r="E7" s="2">
-        <v>45464.47912038458</v>
+        <v>45504.56260522951</v>
       </c>
       <c r="F7" t="s">
         <v>120</v>
@@ -1324,7 +1324,7 @@
         <v>78840</v>
       </c>
       <c r="E8" s="2">
-        <v>45552.47912038462</v>
+        <v>45507.56260522956</v>
       </c>
       <c r="F8" t="s">
         <v>122</v>
@@ -1356,7 +1356,7 @@
         <v>128451</v>
       </c>
       <c r="E9" s="2">
-        <v>45525.47912038466</v>
+        <v>45642.56260522959</v>
       </c>
       <c r="F9" t="s">
         <v>121</v>
@@ -1388,7 +1388,7 @@
         <v>457600</v>
       </c>
       <c r="E10" s="2">
-        <v>45504.47912038476</v>
+        <v>45448.56260522969</v>
       </c>
       <c r="F10" t="s">
         <v>122</v>
@@ -1420,7 +1420,7 @@
         <v>323149</v>
       </c>
       <c r="E11" s="2">
-        <v>45600.47912038479</v>
+        <v>45665.56260522972</v>
       </c>
       <c r="F11" t="s">
         <v>120</v>
@@ -1452,7 +1452,7 @@
         <v>449792</v>
       </c>
       <c r="E12" s="2">
-        <v>45723.47912038484</v>
+        <v>45776.56260522976</v>
       </c>
       <c r="F12" t="s">
         <v>121</v>
@@ -1484,7 +1484,7 @@
         <v>49353</v>
       </c>
       <c r="E13" s="2">
-        <v>45772.47912038486</v>
+        <v>45646.56260522978</v>
       </c>
       <c r="F13" t="s">
         <v>120</v>
@@ -1516,7 +1516,7 @@
         <v>203075</v>
       </c>
       <c r="E14" s="2">
-        <v>45634.47912038489</v>
+        <v>45713.5626052298</v>
       </c>
       <c r="F14" t="s">
         <v>122</v>
@@ -1548,7 +1548,7 @@
         <v>224283</v>
       </c>
       <c r="E15" s="2">
-        <v>45736.47912038492</v>
+        <v>45804.56260522984</v>
       </c>
       <c r="F15" t="s">
         <v>122</v>
@@ -1580,7 +1580,7 @@
         <v>324877</v>
       </c>
       <c r="E16" s="2">
-        <v>45574.47912038495</v>
+        <v>45692.56260522986</v>
       </c>
       <c r="F16" t="s">
         <v>120</v>
@@ -1612,7 +1612,7 @@
         <v>75318</v>
       </c>
       <c r="E17" s="2">
-        <v>45655.47912038497</v>
+        <v>45514.56260522988</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -1644,7 +1644,7 @@
         <v>251025</v>
       </c>
       <c r="E18" s="2">
-        <v>45526.479120385</v>
+        <v>45632.56260522992</v>
       </c>
       <c r="F18" t="s">
         <v>123</v>
@@ -1676,7 +1676,7 @@
         <v>492690</v>
       </c>
       <c r="E19" s="2">
-        <v>45579.47912038503</v>
+        <v>45703.56260522994</v>
       </c>
       <c r="F19" t="s">
         <v>122</v>
@@ -1708,7 +1708,7 @@
         <v>426880</v>
       </c>
       <c r="E20" s="2">
-        <v>45564.47912038508</v>
+        <v>45588.56260522998</v>
       </c>
       <c r="F20" t="s">
         <v>122</v>
@@ -1740,7 +1740,7 @@
         <v>77172</v>
       </c>
       <c r="E21" s="2">
-        <v>45645.47912038511</v>
+        <v>45656.56260523</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -1772,7 +1772,7 @@
         <v>226688</v>
       </c>
       <c r="E22" s="2">
-        <v>45552.47912038513</v>
+        <v>45702.56260523002</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -1804,7 +1804,7 @@
         <v>266951</v>
       </c>
       <c r="E23" s="2">
-        <v>45703.47912038517</v>
+        <v>45786.56260523006</v>
       </c>
       <c r="F23" t="s">
         <v>120</v>
@@ -1836,7 +1836,7 @@
         <v>103264</v>
       </c>
       <c r="E24" s="2">
-        <v>45666.4791203852</v>
+        <v>45581.56260523009</v>
       </c>
       <c r="F24" t="s">
         <v>120</v>
@@ -1868,7 +1868,7 @@
         <v>256458</v>
       </c>
       <c r="E25" s="2">
-        <v>45690.47912038523</v>
+        <v>45488.56260523012</v>
       </c>
       <c r="F25" t="s">
         <v>123</v>
@@ -1900,7 +1900,7 @@
         <v>298880</v>
       </c>
       <c r="E26" s="2">
-        <v>45542.47912038527</v>
+        <v>45603.56260523015</v>
       </c>
       <c r="F26" t="s">
         <v>120</v>
@@ -1932,7 +1932,7 @@
         <v>235281</v>
       </c>
       <c r="E27" s="2">
-        <v>45600.47912038529</v>
+        <v>45812.56260523017</v>
       </c>
       <c r="F27" t="s">
         <v>120</v>
@@ -1964,7 +1964,7 @@
         <v>122859</v>
       </c>
       <c r="E28" s="2">
-        <v>45540.47912038531</v>
+        <v>45586.5626052302</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -1996,7 +1996,7 @@
         <v>384325</v>
       </c>
       <c r="E29" s="2">
-        <v>45754.47912038535</v>
+        <v>45653.56260523023</v>
       </c>
       <c r="F29" t="s">
         <v>120</v>
@@ -2028,7 +2028,7 @@
         <v>404070</v>
       </c>
       <c r="E30" s="2">
-        <v>45669.47912038537</v>
+        <v>45503.56260523025</v>
       </c>
       <c r="F30" t="s">
         <v>122</v>
@@ -2060,7 +2060,7 @@
         <v>362228</v>
       </c>
       <c r="E31" s="2">
-        <v>45479.4791203854</v>
+        <v>45694.56260523029</v>
       </c>
       <c r="F31" t="s">
         <v>120</v>
@@ -2092,7 +2092,7 @@
         <v>441839</v>
       </c>
       <c r="E32" s="2">
-        <v>45566.47912038543</v>
+        <v>45538.56260523031</v>
       </c>
       <c r="F32" t="s">
         <v>120</v>
@@ -2124,7 +2124,7 @@
         <v>279536</v>
       </c>
       <c r="E33" s="2">
-        <v>45673.47912038545</v>
+        <v>45700.56260523035</v>
       </c>
       <c r="F33" t="s">
         <v>123</v>
@@ -2156,7 +2156,7 @@
         <v>327824</v>
       </c>
       <c r="E34" s="2">
-        <v>45581.47912038548</v>
+        <v>45575.56260523037</v>
       </c>
       <c r="F34" t="s">
         <v>122</v>
@@ -2188,7 +2188,7 @@
         <v>267426</v>
       </c>
       <c r="E35" s="2">
-        <v>45519.47912038553</v>
+        <v>45785.56260523041</v>
       </c>
       <c r="F35" t="s">
         <v>120</v>
@@ -2220,7 +2220,7 @@
         <v>187789</v>
       </c>
       <c r="E36" s="2">
-        <v>45555.47912038556</v>
+        <v>45484.56260523044</v>
       </c>
       <c r="F36" t="s">
         <v>120</v>
@@ -2252,7 +2252,7 @@
         <v>228164</v>
       </c>
       <c r="E37" s="2">
-        <v>45699.47912038559</v>
+        <v>45811.56260523047</v>
       </c>
       <c r="F37" t="s">
         <v>121</v>
@@ -2284,7 +2284,7 @@
         <v>323003</v>
       </c>
       <c r="E38" s="2">
-        <v>45553.47912038561</v>
+        <v>45694.56260523049</v>
       </c>
       <c r="F38" t="s">
         <v>120</v>
@@ -2316,7 +2316,7 @@
         <v>135657</v>
       </c>
       <c r="E39" s="2">
-        <v>45779.47912038564</v>
+        <v>45677.56260523052</v>
       </c>
       <c r="F39" t="s">
         <v>120</v>
@@ -2348,7 +2348,7 @@
         <v>245167</v>
       </c>
       <c r="E40" s="2">
-        <v>45713.47912038567</v>
+        <v>45731.56260523055</v>
       </c>
       <c r="F40" t="s">
         <v>121</v>
@@ -2380,7 +2380,7 @@
         <v>167381</v>
       </c>
       <c r="E41" s="2">
-        <v>45748.47912038569</v>
+        <v>45571.56260523057</v>
       </c>
       <c r="F41" t="s">
         <v>123</v>
@@ -2412,7 +2412,7 @@
         <v>490671</v>
       </c>
       <c r="E42" s="2">
-        <v>45780.47912038572</v>
+        <v>45479.56260523059</v>
       </c>
       <c r="F42" t="s">
         <v>120</v>
@@ -2444,7 +2444,7 @@
         <v>204806</v>
       </c>
       <c r="E43" s="2">
-        <v>45508.47912038575</v>
+        <v>45457.56260523063</v>
       </c>
       <c r="F43" t="s">
         <v>121</v>
@@ -2476,7 +2476,7 @@
         <v>80467</v>
       </c>
       <c r="E44" s="2">
-        <v>45589.47912038579</v>
+        <v>45449.56260523065</v>
       </c>
       <c r="F44" t="s">
         <v>122</v>
@@ -2508,7 +2508,7 @@
         <v>193734</v>
       </c>
       <c r="E45" s="2">
-        <v>45799.47912038581</v>
+        <v>45466.56260523068</v>
       </c>
       <c r="F45" t="s">
         <v>123</v>
@@ -2540,7 +2540,7 @@
         <v>108506</v>
       </c>
       <c r="E46" s="2">
-        <v>45521.47912038583</v>
+        <v>45807.56260523071</v>
       </c>
       <c r="F46" t="s">
         <v>122</v>
@@ -2572,7 +2572,7 @@
         <v>119751</v>
       </c>
       <c r="E47" s="2">
-        <v>45795.47912038587</v>
+        <v>45566.56260523074</v>
       </c>
       <c r="F47" t="s">
         <v>122</v>
@@ -2604,7 +2604,7 @@
         <v>391050</v>
       </c>
       <c r="E48" s="2">
-        <v>45461.47912038589</v>
+        <v>45478.56260523076</v>
       </c>
       <c r="F48" t="s">
         <v>121</v>
@@ -2636,7 +2636,7 @@
         <v>415904</v>
       </c>
       <c r="E49" s="2">
-        <v>45793.47912038591</v>
+        <v>45649.5626052308</v>
       </c>
       <c r="F49" t="s">
         <v>120</v>
@@ -2668,7 +2668,7 @@
         <v>297486</v>
       </c>
       <c r="E50" s="2">
-        <v>45472.47912038595</v>
+        <v>45686.56260523082</v>
       </c>
       <c r="F50" t="s">
         <v>121</v>
@@ -2700,7 +2700,7 @@
         <v>178229</v>
       </c>
       <c r="E51" s="2">
-        <v>45476.47912038597</v>
+        <v>45775.56260523084</v>
       </c>
       <c r="F51" t="s">
         <v>121</v>
@@ -2732,7 +2732,7 @@
         <v>471079</v>
       </c>
       <c r="E52" s="2">
-        <v>45495.47912038599</v>
+        <v>45612.56260523088</v>
       </c>
       <c r="F52" t="s">
         <v>121</v>
@@ -2764,7 +2764,7 @@
         <v>378452</v>
       </c>
       <c r="E53" s="2">
-        <v>45761.47912038603</v>
+        <v>45667.5626052309</v>
       </c>
       <c r="F53" t="s">
         <v>121</v>
@@ -2796,7 +2796,7 @@
         <v>455299</v>
       </c>
       <c r="E54" s="2">
-        <v>45739.47912038605</v>
+        <v>45486.56260523092</v>
       </c>
       <c r="F54" t="s">
         <v>123</v>
@@ -2828,7 +2828,7 @@
         <v>116081</v>
       </c>
       <c r="E55" s="2">
-        <v>45518.47912038609</v>
+        <v>45813.56260523096</v>
       </c>
       <c r="F55" t="s">
         <v>120</v>
@@ -2860,7 +2860,7 @@
         <v>468949</v>
       </c>
       <c r="E56" s="2">
-        <v>45727.47912038611</v>
+        <v>45746.56260523098</v>
       </c>
       <c r="F56" t="s">
         <v>122</v>
@@ -2892,7 +2892,7 @@
         <v>99045</v>
       </c>
       <c r="E57" s="2">
-        <v>45489.47912038613</v>
+        <v>45527.562605231</v>
       </c>
       <c r="F57" t="s">
         <v>122</v>
@@ -2924,7 +2924,7 @@
         <v>44698</v>
       </c>
       <c r="E58" s="2">
-        <v>45483.47912038617</v>
+        <v>45667.56260523104</v>
       </c>
       <c r="F58" t="s">
         <v>120</v>
@@ -2956,7 +2956,7 @@
         <v>120078</v>
       </c>
       <c r="E59" s="2">
-        <v>45714.47912038619</v>
+        <v>45592.56260523106</v>
       </c>
       <c r="F59" t="s">
         <v>122</v>
@@ -2988,7 +2988,7 @@
         <v>352767</v>
       </c>
       <c r="E60" s="2">
-        <v>45749.47912038623</v>
+        <v>45610.5626052311</v>
       </c>
       <c r="F60" t="s">
         <v>120</v>
@@ -3020,7 +3020,7 @@
         <v>32671</v>
       </c>
       <c r="E61" s="2">
-        <v>45583.47912038625</v>
+        <v>45737.56260523112</v>
       </c>
       <c r="F61" t="s">
         <v>122</v>
@@ -3052,7 +3052,7 @@
         <v>428400</v>
       </c>
       <c r="E62" s="2">
-        <v>45546.47912038627</v>
+        <v>45523.56260523115</v>
       </c>
       <c r="F62" t="s">
         <v>121</v>
@@ -3084,7 +3084,7 @@
         <v>365528</v>
       </c>
       <c r="E63" s="2">
-        <v>45648.47912038631</v>
+        <v>45686.56260523118</v>
       </c>
       <c r="F63" t="s">
         <v>122</v>
@@ -3116,7 +3116,7 @@
         <v>445323</v>
       </c>
       <c r="E64" s="2">
-        <v>45557.47912038633</v>
+        <v>45621.56260523121</v>
       </c>
       <c r="F64" t="s">
         <v>120</v>
@@ -3148,7 +3148,7 @@
         <v>96202</v>
       </c>
       <c r="E65" s="2">
-        <v>45586.47912038636</v>
+        <v>45594.56260523123</v>
       </c>
       <c r="F65" t="s">
         <v>120</v>
@@ -3180,7 +3180,7 @@
         <v>61663</v>
       </c>
       <c r="E66" s="2">
-        <v>45685.47912038639</v>
+        <v>45606.56260523126</v>
       </c>
       <c r="F66" t="s">
         <v>120</v>
@@ -3212,7 +3212,7 @@
         <v>25708</v>
       </c>
       <c r="E67" s="2">
-        <v>45618.47912038642</v>
+        <v>45725.56260523129</v>
       </c>
       <c r="F67" t="s">
         <v>120</v>
@@ -3244,7 +3244,7 @@
         <v>364050</v>
       </c>
       <c r="E68" s="2">
-        <v>45628.47912038644</v>
+        <v>45602.56260523132</v>
       </c>
       <c r="F68" t="s">
         <v>120</v>
@@ -3276,7 +3276,7 @@
         <v>321955</v>
       </c>
       <c r="E69" s="2">
-        <v>45730.47912038647</v>
+        <v>45687.56260523135</v>
       </c>
       <c r="F69" t="s">
         <v>123</v>
@@ -3308,7 +3308,7 @@
         <v>143883</v>
       </c>
       <c r="E70" s="2">
-        <v>45592.47912038652</v>
+        <v>45769.56260523137</v>
       </c>
       <c r="F70" t="s">
         <v>123</v>
@@ -3340,7 +3340,7 @@
         <v>328394</v>
       </c>
       <c r="E71" s="2">
-        <v>45530.47912038655</v>
+        <v>45752.5626052314</v>
       </c>
       <c r="F71" t="s">
         <v>122</v>
@@ -3372,7 +3372,7 @@
         <v>122547</v>
       </c>
       <c r="E72" s="2">
-        <v>45766.47912038658</v>
+        <v>45613.56260523143</v>
       </c>
       <c r="F72" t="s">
         <v>120</v>
@@ -3404,7 +3404,7 @@
         <v>475298</v>
       </c>
       <c r="E73" s="2">
-        <v>45579.4791203866</v>
+        <v>45597.56260523145</v>
       </c>
       <c r="F73" t="s">
         <v>122</v>
@@ -3436,7 +3436,7 @@
         <v>396393</v>
       </c>
       <c r="E74" s="2">
-        <v>45553.47912038663</v>
+        <v>45687.56260523148</v>
       </c>
       <c r="F74" t="s">
         <v>120</v>
@@ -3468,7 +3468,7 @@
         <v>44754</v>
       </c>
       <c r="E75" s="2">
-        <v>45771.47912038666</v>
+        <v>45687.56260523151</v>
       </c>
       <c r="F75" t="s">
         <v>120</v>
@@ -3500,7 +3500,7 @@
         <v>236814</v>
       </c>
       <c r="E76" s="2">
-        <v>45497.47912038668</v>
+        <v>45578.56260523153</v>
       </c>
       <c r="F76" t="s">
         <v>123</v>
@@ -3532,7 +3532,7 @@
         <v>247714</v>
       </c>
       <c r="E77" s="2">
-        <v>45643.47912038671</v>
+        <v>45513.56260523155</v>
       </c>
       <c r="F77" t="s">
         <v>123</v>
@@ -3564,7 +3564,7 @@
         <v>152483</v>
       </c>
       <c r="E78" s="2">
-        <v>45705.47912038674</v>
+        <v>45473.56260523159</v>
       </c>
       <c r="F78" t="s">
         <v>121</v>
@@ -3596,7 +3596,7 @@
         <v>143983</v>
       </c>
       <c r="E79" s="2">
-        <v>45589.47912038677</v>
+        <v>45450.56260523161</v>
       </c>
       <c r="F79" t="s">
         <v>123</v>
@@ -3628,7 +3628,7 @@
         <v>470486</v>
       </c>
       <c r="E80" s="2">
-        <v>45742.47912038681</v>
+        <v>45639.56260523164</v>
       </c>
       <c r="F80" t="s">
         <v>121</v>
@@ -3660,7 +3660,7 @@
         <v>224835</v>
       </c>
       <c r="E81" s="2">
-        <v>45504.47912038683</v>
+        <v>45565.56260523167</v>
       </c>
       <c r="F81" t="s">
         <v>121</v>
@@ -3692,7 +3692,7 @@
         <v>411896</v>
       </c>
       <c r="E82" s="2">
-        <v>45588.47912038685</v>
+        <v>45735.5626052317</v>
       </c>
       <c r="F82" t="s">
         <v>121</v>
@@ -3724,7 +3724,7 @@
         <v>94896</v>
       </c>
       <c r="E83" s="2">
-        <v>45586.47912038689</v>
+        <v>45699.56260523175</v>
       </c>
       <c r="F83" t="s">
         <v>121</v>
@@ -3756,7 +3756,7 @@
         <v>487095</v>
       </c>
       <c r="E84" s="2">
-        <v>45617.47912038691</v>
+        <v>45710.5626052318</v>
       </c>
       <c r="F84" t="s">
         <v>121</v>
@@ -3788,7 +3788,7 @@
         <v>81295</v>
       </c>
       <c r="E85" s="2">
-        <v>45659.47912038693</v>
+        <v>45798.56260523184</v>
       </c>
       <c r="F85" t="s">
         <v>122</v>
@@ -3820,7 +3820,7 @@
         <v>229686</v>
       </c>
       <c r="E86" s="2">
-        <v>45619.47912038695</v>
+        <v>45671.56260523188</v>
       </c>
       <c r="F86" t="s">
         <v>123</v>
@@ -3852,7 +3852,7 @@
         <v>372833</v>
       </c>
       <c r="E87" s="2">
-        <v>45741.47912038699</v>
+        <v>45674.56260523193</v>
       </c>
       <c r="F87" t="s">
         <v>121</v>
@@ -3884,7 +3884,7 @@
         <v>283255</v>
       </c>
       <c r="E88" s="2">
-        <v>45556.47912038701</v>
+        <v>45788.56260523196</v>
       </c>
       <c r="F88" t="s">
         <v>120</v>
@@ -3916,7 +3916,7 @@
         <v>309648</v>
       </c>
       <c r="E89" s="2">
-        <v>45585.47912038705</v>
+        <v>45774.56260523201</v>
       </c>
       <c r="F89" t="s">
         <v>123</v>
@@ -3948,7 +3948,7 @@
         <v>142874</v>
       </c>
       <c r="E90" s="2">
-        <v>45637.47912038707</v>
+        <v>45760.56260523206</v>
       </c>
       <c r="F90" t="s">
         <v>123</v>
@@ -3980,7 +3980,7 @@
         <v>18155</v>
       </c>
       <c r="E91" s="2">
-        <v>45467.47912038709</v>
+        <v>45458.56260523212</v>
       </c>
       <c r="F91" t="s">
         <v>121</v>
@@ -4012,7 +4012,7 @@
         <v>476872</v>
       </c>
       <c r="E92" s="2">
-        <v>45733.47912038713</v>
+        <v>45723.56260523215</v>
       </c>
       <c r="F92" t="s">
         <v>122</v>
@@ -4044,7 +4044,7 @@
         <v>311528</v>
       </c>
       <c r="E93" s="2">
-        <v>45541.47912038715</v>
+        <v>45504.5626052322</v>
       </c>
       <c r="F93" t="s">
         <v>121</v>
@@ -4076,7 +4076,7 @@
         <v>384705</v>
       </c>
       <c r="E94" s="2">
-        <v>45779.47912038719</v>
+        <v>45627.56260523226</v>
       </c>
       <c r="F94" t="s">
         <v>122</v>
@@ -4108,7 +4108,7 @@
         <v>57254</v>
       </c>
       <c r="E95" s="2">
-        <v>45756.47912038721</v>
+        <v>45795.56260523231</v>
       </c>
       <c r="F95" t="s">
         <v>120</v>
@@ -4140,7 +4140,7 @@
         <v>294062</v>
       </c>
       <c r="E96" s="2">
-        <v>45563.47912038724</v>
+        <v>45458.56260523234</v>
       </c>
       <c r="F96" t="s">
         <v>123</v>
@@ -4172,7 +4172,7 @@
         <v>95981</v>
       </c>
       <c r="E97" s="2">
-        <v>45481.47912038727</v>
+        <v>45803.56260523237</v>
       </c>
       <c r="F97" t="s">
         <v>120</v>
@@ -4204,7 +4204,7 @@
         <v>463929</v>
       </c>
       <c r="E98" s="2">
-        <v>45603.47912038729</v>
+        <v>45726.56260523239</v>
       </c>
       <c r="F98" t="s">
         <v>122</v>
@@ -4236,7 +4236,7 @@
         <v>40306</v>
       </c>
       <c r="E99" s="2">
-        <v>45613.47912038732</v>
+        <v>45712.56260523242</v>
       </c>
       <c r="F99" t="s">
         <v>122</v>
@@ -4268,7 +4268,7 @@
         <v>157718</v>
       </c>
       <c r="E100" s="2">
-        <v>45512.47912038735</v>
+        <v>45489.56260523245</v>
       </c>
       <c r="F100" t="s">
         <v>120</v>
@@ -4300,7 +4300,7 @@
         <v>318987</v>
       </c>
       <c r="E101" s="2">
-        <v>45657.47912038738</v>
+        <v>45748.56260523247</v>
       </c>
       <c r="F101" t="s">
         <v>122</v>
